--- a/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>中海积极增利灵活配置混合</t>
   </si>
   <si>
+    <t>0.80</t>
+  </si>
+  <si>
     <t>68.84</t>
   </si>
   <si>
     <t>3.32</t>
+  </si>
+  <si>
+    <t>0.0266</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001279</t>
-  </si>
-  <si>
-    <t>中海积极增利灵活配置混合</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>68.84</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>0.0266</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5996</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.37</v>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2878</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8915</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1406,13 +1471,515 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9618</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.74</v>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4170</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1941,14 +1984,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.37</v>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2022,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2360</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1973,13 +2060,987 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3746</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>52.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2939,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,17 +2951,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2970,14 +2991,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.49</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2986,14 +3029,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.74</v>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2452</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3002,14 +3067,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.37</v>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3018,14 +3105,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.16</v>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0984</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3034,13 +3143,1343 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013484</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001279</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中海积极增利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>68.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>002132</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>广发鑫享灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>77.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>90.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1031</t>
+          <t>3.2278</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -639,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001279</t>
+          <t>398051</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海积极增利灵活配置混合</t>
+          <t>中海环保新能源混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>28.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>75.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0308</t>
+          <t>2.2452</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -677,36 +715,1288 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>002296</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>长城行业轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>28.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>1.1212</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0984</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013484</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +2010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +2031,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,36 +2061,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012541</t>
+          <t>002296</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰产业升级混合型证券投资基金A</t>
+          <t>长城行业轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.66</t>
+          <t>25.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.18</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4793</t>
+          <t>1.4170</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -819,26 +2109,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.06</t>
+          <t>22.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.42</t>
+          <t>73.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5996</t>
+          <t>1.3713</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -847,36 +2137,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210004</t>
+          <t>340008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰稳健成长混合</t>
+          <t>兴全有机增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>30.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.04</t>
+          <t>75.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3447</t>
+          <t>1.2360</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -885,36 +2175,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>210005</t>
+          <t>001279</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰主题优势混合</t>
+          <t>中海积极增利灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.30</t>
+          <t>82.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3116</t>
+          <t>0.3746</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -923,36 +2213,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009968</t>
+          <t>005977</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合A</t>
+          <t>中信保诚至兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.68</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1947</t>
+          <t>0.2407</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -961,36 +2251,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>000823</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>银华高端制造业灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0960</t>
+          <t>0.1734</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -999,36 +2289,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001279</t>
+          <t>000800</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中海积极增利灵活配置混合</t>
+          <t>华商未来主题混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.36</t>
+          <t>84.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0953</t>
+          <t>0.1715</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1037,36 +2327,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009969</t>
+          <t>580008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合C</t>
+          <t>东吴新产业精选股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.68</t>
+          <t>89.77</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0616</t>
+          <t>0.0954</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1075,36 +2365,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012542</t>
+          <t>005978</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金鹰产业升级混合型证券投资基金C</t>
+          <t>中信保诚至兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28.18</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0576</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1113,36 +2403,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>770001</t>
+          <t>001808</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>德邦优化灵活配置混合</t>
+          <t>银华互联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.25</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0492</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1151,36 +2441,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>470021</t>
+          <t>580007</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富优选回报灵活配置混合A</t>
+          <t>东吴安享量化灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>73.95</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0425</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1189,36 +2479,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007254</t>
+          <t>001318</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发均衡价值混合</t>
+          <t>东方新策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.28</t>
+          <t>28.13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0396</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1227,36 +2517,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>006251</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>银华兴盛股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0323</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1265,36 +2555,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>580007</t>
+          <t>470021</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东吴安享量化灵活配置混合</t>
+          <t>汇添富优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1303,36 +2593,454 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>52.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>002418</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>汇添富优选回报灵活配置混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +3604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,7 +3625,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1947,36 +3655,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002296</t>
+          <t>012541</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城行业轮动灵活配置混合</t>
+          <t>金鹰产业升级混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.67</t>
+          <t>39.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>28.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4170</t>
+          <t>1.4793</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1995,26 +3703,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.97</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.87</t>
+          <t>75.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3713</t>
+          <t>0.5996</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2023,36 +3731,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>340008</t>
+          <t>210004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全有机增长混合</t>
+          <t>金鹰稳健成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.22</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.70</t>
+          <t>83.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2360</t>
+          <t>0.3447</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2061,36 +3769,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001279</t>
+          <t>210005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海积极增利灵活配置混合</t>
+          <t>金鹰主题优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.11</t>
+          <t>84.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3746</t>
+          <t>0.3116</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2099,36 +3807,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005977</t>
+          <t>009968</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合A</t>
+          <t>金鹰内需成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>83.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2407</t>
+          <t>0.1947</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2137,36 +3845,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000823</t>
+          <t>580008</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华高端制造业灵活配置混合</t>
+          <t>东吴新产业精选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1734</t>
+          <t>0.0960</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2175,36 +3883,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000800</t>
+          <t>001279</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华商未来主题混合</t>
+          <t>中海积极增利灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.71</t>
+          <t>88.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1715</t>
+          <t>0.0953</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2213,36 +3921,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>009969</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>金鹰内需成长混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>83.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0954</t>
+          <t>0.0616</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2251,36 +3959,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005978</t>
+          <t>012542</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合C</t>
+          <t>金鹰产业升级混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>28.18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0576</t>
+          <t>0.0552</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2289,36 +3997,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001808</t>
+          <t>770001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银华互联网主题灵活配置混合</t>
+          <t>德邦优化灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>78.25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0492</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2327,36 +4035,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>580007</t>
+          <t>470021</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东吴安享量化灵活配置混合</t>
+          <t>汇添富优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>73.95</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0425</t>
+          <t>0.0273</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2365,36 +4073,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001318</t>
+          <t>007254</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方新策略灵活配置混合A</t>
+          <t>广发均衡价值混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28.13</t>
+          <t>83.28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0396</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2403,36 +4111,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006251</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华兴盛股票</t>
+          <t>东吴阿尔法灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0323</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2441,36 +4149,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>470021</t>
+          <t>580007</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富优选回报灵活配置混合A</t>
+          <t>东吴安享量化灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2479,454 +4187,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010403</t>
+          <t>002418</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华商景气优选混合</t>
+          <t>汇添富优选回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007254</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发均衡价值混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002060</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>28.13</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006573</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>81.10</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004166</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>33.44</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>400020</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东方成长回报平衡混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>52.39</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001495</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>东方新价值混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>29.56</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002418</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇添富优选回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008890</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>62.02</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002162</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东方新价值混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>29.56</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006574</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>81.10</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007686</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>33.44</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +4230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,7 +4251,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2991,32 +4281,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002132</t>
+          <t>580008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发鑫享灵活配置混合</t>
+          <t>东吴新产业精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>77.22</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2278</t>
+          <t>0.1031</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3029,36 +4319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>398051</t>
+          <t>001279</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海环保新能源混合</t>
+          <t>中海积极增利灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.81</t>
+          <t>80.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2452</t>
+          <t>0.0308</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3067,1288 +4357,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002296</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城行业轮动灵活配置混合</t>
+          <t>东吴阿尔法灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.75</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1212</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>398021</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中海能源策略混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0984</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001279</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中海积极增利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7018</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519087</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新华优选分红混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.73</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4861</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001040</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>新华策略精选股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3591</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519156</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>新华行业轮换灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2853</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000800</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商未来主题混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.74</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2318</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001387</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2141</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000823</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华高端制造业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2037</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1875</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>013484</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长城行业轮动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1681</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001701</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中融产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1507</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>373020</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>上投摩根双核平衡混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>67.77</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1262</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>013916</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中融成长先锋一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.89</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1145</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0977</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>580008</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>东吴新产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0913</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011470</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东吴新产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0913</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001388</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011457</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>新华行业龙头主题股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>015143</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中欧智能制造混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>64.37</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.98</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008526</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华泰柏瑞行业精选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>014571</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>88.98</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005437</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>013242</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>北信瑞丰优势行业股票</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>015144</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中欧智能制造混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>64.37</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009513</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>创金合信同顺创业板精选股票A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008527</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华泰柏瑞行业精选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>013917</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中融成长先锋一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>86.89</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009514</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>创金合信同顺创业板精选股票C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>519157</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>新华行业轮换灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005438</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>015174</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>上投摩根双核平衡混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>67.77</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4362,128 +4400,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.49</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>11.49</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>5.49</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>6.74</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>3.37</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -583,6 +600,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城优化升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4252</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014329</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014330</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2004,7 +3521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3048,7 +4565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3598,7 +5115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4224,7 +5741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4394,7 +5911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300861-美畅股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>5.02</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>11.49</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>5.49</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>6.74</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>3.37</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -600,6 +617,856 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3592</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2099,7 +2966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3521,7 +4388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4565,7 +5432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5115,7 +5982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5741,7 +6608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5911,7 +6778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
